--- a/Team-Data/2011-12/4-7-2011-12.xlsx
+++ b/Team-Data/2011-12/4-7-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
         <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
@@ -696,19 +763,19 @@
         <v>19.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P2" t="n">
         <v>20.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
         <v>31.1</v>
@@ -738,16 +805,16 @@
         <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -759,28 +826,28 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -869,7 +936,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
@@ -878,34 +945,34 @@
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -917,19 +984,19 @@
         <v>20.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -947,31 +1014,31 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,16 +1050,16 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
         <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,16 +1136,16 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
@@ -1102,13 +1169,13 @@
         <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.8</v>
+        <v>-12.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1144,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1168,13 +1235,13 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>27</v>
@@ -1481,25 +1548,25 @@
         <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
         <v>14</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>14</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,13 +1587,13 @@
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.544</v>
+        <v>0.554</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,10 +1661,10 @@
         <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L7" t="n">
         <v>7.4</v>
@@ -1606,13 +1673,13 @@
         <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O7" t="n">
         <v>15.2</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.757</v>
@@ -1633,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
@@ -1645,28 +1712,28 @@
         <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1693,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1705,10 +1772,10 @@
         <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.536</v>
+        <v>0.545</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1785,16 +1852,16 @@
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N8" t="n">
         <v>0.324</v>
       </c>
       <c r="O8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P8" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.736</v>
@@ -1803,13 +1870,13 @@
         <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1821,37 +1888,37 @@
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13</v>
       </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1884,16 +1951,16 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-5.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2048,19 +2115,19 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J10" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
         <v>8.1</v>
@@ -2155,25 +2222,25 @@
         <v>0.386</v>
       </c>
       <c r="O10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.775</v>
       </c>
       <c r="R10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S10" t="n">
         <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
@@ -2194,13 +2261,13 @@
         <v>16.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>29</v>
@@ -2260,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2412,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2430,16 +2497,16 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.607</v>
+        <v>0.618</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0.779</v>
@@ -2531,16 +2598,16 @@
         <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.9</v>
@@ -2552,19 +2619,19 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2603,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2636,10 +2703,10 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
         <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.681</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T13" t="n">
         <v>41.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2740,28 +2807,28 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>7</v>
       </c>
-      <c r="AE13" t="n">
-        <v>6</v>
-      </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2779,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2797,13 +2864,13 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
@@ -2821,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.614</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J14" t="n">
-        <v>79.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
         <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
         <v>22</v>
@@ -2907,28 +2974,28 @@
         <v>15.2</v>
       </c>
       <c r="W14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2943,16 +3010,16 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -2970,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>3</v>
@@ -3000,10 +3067,10 @@
         <v>11</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
         <v>82.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="O15" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="R15" t="n">
         <v>12.5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O15" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12.4</v>
       </c>
       <c r="S15" t="n">
         <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
         <v>9.800000000000001</v>
@@ -3101,16 +3168,16 @@
         <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -3125,19 +3192,19 @@
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>23</v>
@@ -3149,13 +3216,13 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3185,7 +3252,7 @@
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
         <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J17" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
         <v>14</v>
@@ -3465,19 +3532,19 @@
         <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -3489,28 +3556,28 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>4</v>
@@ -3519,16 +3586,16 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
@@ -3537,19 +3604,19 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.439</v>
+        <v>0.446</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3599,49 +3666,49 @@
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T18" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
         <v>18.7</v>
@@ -3650,13 +3717,13 @@
         <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3671,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3680,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3692,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
@@ -3710,25 +3777,25 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3910,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>0.268</v>
+        <v>0.255</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
@@ -3981,46 +4048,46 @@
         <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4053,25 +4120,25 @@
         <v>20</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>26</v>
@@ -4080,13 +4147,13 @@
         <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4226,7 +4293,7 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4250,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J23" t="n">
         <v>77.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P23" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.651</v>
+        <v>0.648</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
         <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
         <v>6.7</v>
@@ -4551,7 +4618,7 @@
         <v>4.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
         <v>17.6</v>
@@ -4560,13 +4627,13 @@
         <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
         <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>9</v>
@@ -4578,16 +4645,16 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4602,31 +4669,31 @@
         <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
         <v>5.4</v>
       </c>
       <c r="M24" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.366</v>
@@ -4709,7 +4776,7 @@
         <v>17.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R24" t="n">
         <v>10.5</v>
@@ -4727,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>5</v>
@@ -4742,19 +4809,19 @@
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4763,16 +4830,16 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4805,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.518</v>
+        <v>0.509</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
         <v>16.1</v>
@@ -4891,28 +4958,28 @@
         <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
         <v>6.7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4924,31 +4991,31 @@
         <v>19.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
@@ -4957,13 +5024,13 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4993,16 +5060,16 @@
         <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.474</v>
+        <v>0.482</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,10 +5119,10 @@
         <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,7 +5131,7 @@
         <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O26" t="n">
         <v>17.1</v>
@@ -5073,16 +5140,16 @@
         <v>21.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.7</v>
@@ -5100,22 +5167,22 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
         <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
@@ -5124,16 +5191,16 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5157,37 +5224,37 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5237,13 +5304,13 @@
         <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L27" t="n">
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
         <v>0.31</v>
@@ -5255,28 +5322,28 @@
         <v>23.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
         <v>18.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5288,28 +5355,28 @@
         <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
         <v>26</v>
       </c>
-      <c r="AG27" t="n">
-        <v>27</v>
-      </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5330,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>20</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5354,13 +5421,13 @@
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5855,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>3</v>
@@ -5867,7 +5934,7 @@
         <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>29</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5894,16 +5961,16 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5912,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6058,16 +6125,16 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-7-2011-12</t>
+          <t>2012-04-07</t>
         </is>
       </c>
     </row>
